--- a/backend/src/tmp/Lista de participantes.xlsx
+++ b/backend/src/tmp/Lista de participantes.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Veramendi Malpartida</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Diego + participante.apellidos</t>
   </si>
   <si>
     <t>v.dvm.dvm@gmail.com</t>
@@ -25,10 +22,7 @@
     <t>Líder</t>
   </si>
   <si>
-    <t>BRUCE ANTHONY</t>
-  </si>
-  <si>
-    <t>ESTRADA MELGAREJO</t>
+    <t>BRUCE ANTHONY + participante.apellidos</t>
   </si>
   <si>
     <t>a20203298@pucp.edu.pe</t>
@@ -37,19 +31,13 @@
     <t>Miembro</t>
   </si>
   <si>
-    <t>GABRIEL OMAR</t>
-  </si>
-  <si>
-    <t>DURAN RUIZ</t>
+    <t>GABRIEL OMAR + participante.apellidos</t>
   </si>
   <si>
     <t>a20203371@pucp.edu.pe</t>
   </si>
   <si>
-    <t>CHRISTIAN SEBASTIAN</t>
-  </si>
-  <si>
-    <t>CHIRA MALLQUI</t>
+    <t>CHRISTIAN SEBASTIAN + participante.apellidos</t>
   </si>
   <si>
     <t>s.chira@pucp.edu.pe</t>
@@ -429,16 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,50 +435,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/tmp/Lista de participantes.xlsx
+++ b/backend/src/tmp/Lista de participantes.xlsx
@@ -11,7 +11,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>Equipo: When eres</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
   <si>
     <t>Diego</t>
   </si>
@@ -68,15 +83,25 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,12 +109,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,72 +471,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/backend/src/tmp/Lista de participantes.xlsx
+++ b/backend/src/tmp/Lista de participantes.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
-    <t>Equipo: When eres</t>
+    <t>Equipo: Los dibugods</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -474,10 +474,9 @@
   <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
